--- a/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222.xlsx
+++ b/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumu\Desktop\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCB53AD-A92C-4666-8096-DF6E8BABED49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49FFB52-6B48-4715-8C3F-AAA909FDEA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAF740F5-369D-4DFB-89D5-D05DE433F51A}"/>
   </bookViews>
@@ -2161,7 +2161,7 @@
   <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222.xlsx
+++ b/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumu\Desktop\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7D3455-620E-4E28-9C35-9436267751E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEDB868-95A6-4F7C-A668-1C0E6E026155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="9444" windowHeight="12012" xr2:uid="{CAF740F5-369D-4DFB-89D5-D05DE433F51A}"/>
+    <workbookView xWindow="9804" yWindow="828" windowWidth="9444" windowHeight="12012" xr2:uid="{CAF740F5-369D-4DFB-89D5-D05DE433F51A}"/>
   </bookViews>
   <sheets>
     <sheet name="160" sheetId="2" r:id="rId1"/>
@@ -2176,7 +2176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2209,7 +2209,7 @@
         <v>262</v>
       </c>
       <c r="C2" s="2">
-        <v>1200</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2220,7 +2220,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="2">
-        <v>8400</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2231,7 +2231,7 @@
         <v>175</v>
       </c>
       <c r="C4" s="2">
-        <v>13200</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -2242,7 +2242,7 @@
         <v>176</v>
       </c>
       <c r="C5" s="2">
-        <v>38400</v>
+        <v>46400</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -2253,7 +2253,7 @@
         <v>177</v>
       </c>
       <c r="C6" s="2">
-        <v>4800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -2264,7 +2264,7 @@
         <v>178</v>
       </c>
       <c r="C7" s="2">
-        <v>22800</v>
+        <v>30800</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -2275,7 +2275,7 @@
         <v>179</v>
       </c>
       <c r="C8" s="2">
-        <v>15600</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -2286,7 +2286,7 @@
         <v>180</v>
       </c>
       <c r="C9" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -2297,7 +2297,7 @@
         <v>181</v>
       </c>
       <c r="C10" s="2">
-        <v>36000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -2308,7 +2308,7 @@
         <v>182</v>
       </c>
       <c r="C11" s="2">
-        <v>18000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -2319,7 +2319,7 @@
         <v>183</v>
       </c>
       <c r="C12" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -2330,7 +2330,7 @@
         <v>184</v>
       </c>
       <c r="C13" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -2341,7 +2341,7 @@
         <v>185</v>
       </c>
       <c r="C14" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -2352,7 +2352,7 @@
         <v>186</v>
       </c>
       <c r="C15" s="2">
-        <v>13200</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -2363,7 +2363,7 @@
         <v>187</v>
       </c>
       <c r="C16" s="2">
-        <v>9600</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -2374,7 +2374,7 @@
         <v>188</v>
       </c>
       <c r="C17" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -2385,7 +2385,7 @@
         <v>189</v>
       </c>
       <c r="C18" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -2396,7 +2396,7 @@
         <v>190</v>
       </c>
       <c r="C19" s="2">
-        <v>8400</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -2407,7 +2407,7 @@
         <v>191</v>
       </c>
       <c r="C20" s="2">
-        <v>4800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -2418,7 +2418,7 @@
         <v>192</v>
       </c>
       <c r="C21" s="2">
-        <v>4800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -2429,7 +2429,7 @@
         <v>193</v>
       </c>
       <c r="C22" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -2440,7 +2440,7 @@
         <v>194</v>
       </c>
       <c r="C23" s="2">
-        <v>54000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -2451,7 +2451,7 @@
         <v>195</v>
       </c>
       <c r="C24" s="2">
-        <v>6000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -2462,7 +2462,7 @@
         <v>263</v>
       </c>
       <c r="C25" s="2">
-        <v>10800</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -2473,7 +2473,7 @@
         <v>196</v>
       </c>
       <c r="C26" s="2">
-        <v>16800</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -2484,7 +2484,7 @@
         <v>197</v>
       </c>
       <c r="C27" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -2495,7 +2495,7 @@
         <v>198</v>
       </c>
       <c r="C28" s="2">
-        <v>18000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -2506,7 +2506,7 @@
         <v>199</v>
       </c>
       <c r="C29" s="2">
-        <v>9600</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -2517,7 +2517,7 @@
         <v>200</v>
       </c>
       <c r="C30" s="2">
-        <v>15600</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -2528,7 +2528,7 @@
         <v>264</v>
       </c>
       <c r="C31" s="2">
-        <v>3600</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -2539,7 +2539,7 @@
         <v>201</v>
       </c>
       <c r="C32" s="2">
-        <v>19200</v>
+        <v>27200</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -2550,7 +2550,7 @@
         <v>202</v>
       </c>
       <c r="C33" s="2">
-        <v>51750</v>
+        <v>59750</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -2561,7 +2561,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="2">
-        <v>14400</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -2572,7 +2572,7 @@
         <v>204</v>
       </c>
       <c r="C35" s="2">
-        <v>1200</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -2583,7 +2583,7 @@
         <v>205</v>
       </c>
       <c r="C36" s="2">
-        <v>10800</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -2594,7 +2594,7 @@
         <v>206</v>
       </c>
       <c r="C37" s="2">
-        <v>1200</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -2605,7 +2605,7 @@
         <v>207</v>
       </c>
       <c r="C38" s="2">
-        <v>42000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -2616,7 +2616,7 @@
         <v>208</v>
       </c>
       <c r="C39" s="2">
-        <v>15600</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -2627,7 +2627,7 @@
         <v>209</v>
       </c>
       <c r="C40" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -2638,7 +2638,7 @@
         <v>210</v>
       </c>
       <c r="C41" s="2">
-        <v>6000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -2649,7 +2649,7 @@
         <v>211</v>
       </c>
       <c r="C42" s="2">
-        <v>15600</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -2660,7 +2660,7 @@
         <v>212</v>
       </c>
       <c r="C43" s="2">
-        <v>31200</v>
+        <v>39200</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -2671,7 +2671,7 @@
         <v>265</v>
       </c>
       <c r="C44" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -2682,7 +2682,7 @@
         <v>213</v>
       </c>
       <c r="C45" s="2">
-        <v>39600</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -2693,7 +2693,7 @@
         <v>214</v>
       </c>
       <c r="C46" s="2">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -2704,7 +2704,7 @@
         <v>215</v>
       </c>
       <c r="C47" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -2715,7 +2715,7 @@
         <v>266</v>
       </c>
       <c r="C48" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -2726,7 +2726,7 @@
         <v>216</v>
       </c>
       <c r="C49" s="2">
-        <v>13200</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -2737,7 +2737,7 @@
         <v>267</v>
       </c>
       <c r="C50" s="2">
-        <v>10800</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -2748,7 +2748,7 @@
         <v>217</v>
       </c>
       <c r="C51" s="2">
-        <v>7200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -2759,7 +2759,7 @@
         <v>218</v>
       </c>
       <c r="C52" s="2">
-        <v>10800</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -2770,7 +2770,7 @@
         <v>219</v>
       </c>
       <c r="C53" s="2">
-        <v>9600</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -2781,7 +2781,7 @@
         <v>268</v>
       </c>
       <c r="C54" s="2">
-        <v>10800</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -2792,7 +2792,7 @@
         <v>220</v>
       </c>
       <c r="C55" s="2">
-        <v>2400</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -2803,7 +2803,7 @@
         <v>221</v>
       </c>
       <c r="C56" s="2">
-        <v>18000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -2814,7 +2814,7 @@
         <v>222</v>
       </c>
       <c r="C57" s="2">
-        <v>16800</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -2825,7 +2825,7 @@
         <v>223</v>
       </c>
       <c r="C58" s="2">
-        <v>4800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -2836,7 +2836,7 @@
         <v>224</v>
       </c>
       <c r="C59" s="2">
-        <v>9600</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -2847,7 +2847,7 @@
         <v>225</v>
       </c>
       <c r="C60" s="2">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -2858,7 +2858,7 @@
         <v>226</v>
       </c>
       <c r="C61" s="2">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -2869,7 +2869,7 @@
         <v>227</v>
       </c>
       <c r="C62" s="2">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -2880,7 +2880,7 @@
         <v>228</v>
       </c>
       <c r="C63" s="2">
-        <v>4000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -2891,7 +2891,7 @@
         <v>229</v>
       </c>
       <c r="C64" s="2">
-        <v>20400</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -2902,7 +2902,7 @@
         <v>230</v>
       </c>
       <c r="C65" s="2">
-        <v>1200</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -2913,7 +2913,7 @@
         <v>269</v>
       </c>
       <c r="C66" s="2">
-        <v>2400</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -2924,7 +2924,7 @@
         <v>231</v>
       </c>
       <c r="C67" s="2">
-        <v>1200</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -2935,7 +2935,7 @@
         <v>232</v>
       </c>
       <c r="C68" s="2">
-        <v>2400</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -2946,7 +2946,7 @@
         <v>233</v>
       </c>
       <c r="C69" s="2">
-        <v>8400</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -2957,7 +2957,7 @@
         <v>234</v>
       </c>
       <c r="C70" s="2">
-        <v>9600</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -2968,7 +2968,7 @@
         <v>235</v>
       </c>
       <c r="C71" s="2">
-        <v>6000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -2979,7 +2979,7 @@
         <v>236</v>
       </c>
       <c r="C72" s="2">
-        <v>10800</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -2990,7 +2990,7 @@
         <v>270</v>
       </c>
       <c r="C73" s="2">
-        <v>8400</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -3001,7 +3001,7 @@
         <v>237</v>
       </c>
       <c r="C74" s="2">
-        <v>3600</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -3012,7 +3012,7 @@
         <v>238</v>
       </c>
       <c r="C75" s="2">
-        <v>10800</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -3023,7 +3023,7 @@
         <v>239</v>
       </c>
       <c r="C76" s="2">
-        <v>72000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -3034,7 +3034,7 @@
         <v>240</v>
       </c>
       <c r="C77" s="2">
-        <v>9900</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -3045,7 +3045,7 @@
         <v>241</v>
       </c>
       <c r="C78" s="2">
-        <v>1100</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -3056,7 +3056,7 @@
         <v>242</v>
       </c>
       <c r="C79" s="2">
-        <v>7700</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -3067,7 +3067,7 @@
         <v>271</v>
       </c>
       <c r="C80" s="2">
-        <v>11000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -3078,7 +3078,7 @@
         <v>243</v>
       </c>
       <c r="C81" s="2">
-        <v>61600</v>
+        <v>69600</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -3089,7 +3089,7 @@
         <v>244</v>
       </c>
       <c r="C82" s="2">
-        <v>11000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -3100,7 +3100,7 @@
         <v>245</v>
       </c>
       <c r="C83" s="2">
-        <v>3300</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -3111,7 +3111,7 @@
         <v>246</v>
       </c>
       <c r="C84" s="2">
-        <v>3300</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -3122,7 +3122,7 @@
         <v>247</v>
       </c>
       <c r="C85" s="2">
-        <v>12600</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -3133,7 +3133,7 @@
         <v>248</v>
       </c>
       <c r="C86" s="2">
-        <v>5400</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -3144,7 +3144,7 @@
         <v>249</v>
       </c>
       <c r="C87" s="2">
-        <v>2700</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -3155,7 +3155,7 @@
         <v>250</v>
       </c>
       <c r="C88" s="2">
-        <v>4500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -3166,7 +3166,7 @@
         <v>272</v>
       </c>
       <c r="C89" s="2">
-        <v>13500</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -3177,7 +3177,7 @@
         <v>251</v>
       </c>
       <c r="C90" s="2">
-        <v>35100</v>
+        <v>43100</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -3188,7 +3188,7 @@
         <v>273</v>
       </c>
       <c r="C91" s="2">
-        <v>61000</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -3199,7 +3199,7 @@
         <v>252</v>
       </c>
       <c r="C92" s="2">
-        <v>10800</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -3210,7 +3210,7 @@
         <v>253</v>
       </c>
       <c r="C93" s="2">
-        <v>18900</v>
+        <v>26900</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -3221,7 +3221,7 @@
         <v>274</v>
       </c>
       <c r="C94" s="2">
-        <v>4500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -3232,7 +3232,7 @@
         <v>275</v>
       </c>
       <c r="C95" s="2">
-        <v>5600</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -3243,7 +3243,7 @@
         <v>254</v>
       </c>
       <c r="C96" s="2">
-        <v>2100</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -3254,7 +3254,7 @@
         <v>255</v>
       </c>
       <c r="C97" s="2">
-        <v>3500</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -3265,7 +3265,7 @@
         <v>256</v>
       </c>
       <c r="C98" s="2">
-        <v>4800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -3276,7 +3276,7 @@
         <v>257</v>
       </c>
       <c r="C99" s="2">
-        <v>2100</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -3287,7 +3287,7 @@
         <v>258</v>
       </c>
       <c r="C100" s="2">
-        <v>4200</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -3298,7 +3298,7 @@
         <v>259</v>
       </c>
       <c r="C101" s="2">
-        <v>4200</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -3309,7 +3309,7 @@
         <v>276</v>
       </c>
       <c r="C102" s="2">
-        <v>8400</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -3320,7 +3320,7 @@
         <v>260</v>
       </c>
       <c r="C103" s="2">
-        <v>4900</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -3331,7 +3331,7 @@
         <v>261</v>
       </c>
       <c r="C104" s="2">
-        <v>171200</v>
+        <v>179200</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
@@ -3814,26 +3814,9 @@
       <c r="A224"/>
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A225"/>
-      <c r="C225" s="2"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A226"/>
-      <c r="C226" s="2"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A227"/>
-      <c r="C227" s="2"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A228"/>
-      <c r="C228" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C104" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A229:A1048576">
+  <conditionalFormatting sqref="A225:A1048576">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
@@ -3843,14 +3826,14 @@
     <cfRule type="duplicateValues" dxfId="16" priority="21" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="15" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A228">
-    <cfRule type="duplicateValues" dxfId="2" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  <conditionalFormatting sqref="A2:A224">
+    <cfRule type="duplicateValues" dxfId="2" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{2ACAF4B9-4E2B-45E1-9FE8-D2C1DDB114D1}"/>
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64253" xr:uid="{67C4C850-B1E0-4892-8D6D-FF0435DF797F}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64249" xr:uid="{67C4C850-B1E0-4892-8D6D-FF0435DF797F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222.xlsx
+++ b/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumu\Desktop\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonScript\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEDB868-95A6-4F7C-A668-1C0E6E026155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904065B4-3498-453A-9FEA-B6A8FE765187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9804" yWindow="828" windowWidth="9444" windowHeight="12012" xr2:uid="{CAF740F5-369D-4DFB-89D5-D05DE433F51A}"/>
+    <workbookView xWindow="7212" yWindow="1596" windowWidth="11520" windowHeight="8976" xr2:uid="{CAF740F5-369D-4DFB-89D5-D05DE433F51A}"/>
   </bookViews>
   <sheets>
     <sheet name="160" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'160'!$A$1:$C$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'160'!$A$1:$D$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="280">
   <si>
     <t>中新蔵</t>
   </si>
@@ -1589,6 +1589,36 @@
   </si>
   <si>
     <t>エルキュービック㈱</t>
+  </si>
+  <si>
+    <t>いやさか腎クリニック</t>
+    <rPh sb="4" eb="5">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社NextDream</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>医療法人　友安会</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウジン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トモヤス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2176,9 +2206,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2308,7 +2340,7 @@
         <v>182</v>
       </c>
       <c r="C11" s="2">
-        <v>26000</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -2368,21 +2400,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="C17" s="2">
-        <v>15200</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1440</v>
+        <v>1414</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2">
         <v>15200</v>
@@ -2390,32 +2422,32 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2">
-        <v>16400</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2">
-        <v>12800</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1581</v>
+        <v>1463</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2">
         <v>12800</v>
@@ -2423,219 +2455,219 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1656</v>
+        <v>1581</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2">
-        <v>15200</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1849</v>
+        <v>1656</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2">
-        <v>62000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>1956</v>
+        <v>1849</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2">
-        <v>14000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>9680</v>
+        <v>1956</v>
       </c>
       <c r="B25" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="C25" s="2">
-        <v>18800</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>85</v>
+        <v>9680</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2">
-        <v>24800</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2">
-        <v>15200</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" s="2">
-        <v>26000</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29" s="2">
-        <v>17600</v>
+        <v>27200</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" s="2">
-        <v>23600</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>547</v>
+        <v>399</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="C31" s="2">
-        <v>11600</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1834</v>
+        <v>547</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2">
-        <v>27200</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>161</v>
+        <v>1834</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="2">
-        <v>59750</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" s="2">
-        <v>22400</v>
+        <v>54500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1032</v>
+        <v>396</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" s="2">
-        <v>9200</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>76</v>
+        <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C36" s="2">
-        <v>18800</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" s="2">
-        <v>9200</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" s="2">
-        <v>50000</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" s="2">
-        <v>23600</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C40" s="2">
-        <v>15200</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41" s="2">
         <v>14000</v>
@@ -2643,76 +2675,76 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C42" s="2">
-        <v>23600</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C43" s="2">
-        <v>39200</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>485</v>
+        <v>410</v>
       </c>
       <c r="B44" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="C44" s="2">
-        <v>15200</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>548</v>
+        <v>485</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C45" s="2">
-        <v>47600</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>633</v>
+        <v>548</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" s="2">
-        <v>20000</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="2">
-        <v>15200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="C48" s="2">
         <v>15200</v>
@@ -2720,219 +2752,219 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2">
-        <v>21200</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B50" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="C50" s="2">
-        <v>18800</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>821</v>
+        <v>683</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C51" s="2">
-        <v>15200</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C52" s="2">
-        <v>18800</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>858</v>
+        <v>822</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C53" s="2">
-        <v>17600</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2">
-        <v>18800</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>903</v>
+        <v>859</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="C55" s="2">
-        <v>10400</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>950</v>
+        <v>901</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="C56" s="2">
-        <v>26000</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>980</v>
+        <v>903</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C57" s="2">
-        <v>24800</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>992</v>
+        <v>950</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C58" s="2">
-        <v>12800</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1017</v>
+        <v>964</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="C59" s="2">
-        <v>17600</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1019</v>
+        <v>980</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C60" s="2">
-        <v>20000</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>1078</v>
+        <v>992</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C61" s="2">
-        <v>20000</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1130</v>
+        <v>1017</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C62" s="2">
-        <v>20000</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1165</v>
+        <v>1019</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C63" s="2">
-        <v>9000</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1188</v>
+        <v>1078</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C64" s="2">
-        <v>28400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1211</v>
+        <v>1130</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C65" s="2">
-        <v>9200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1222</v>
+        <v>1165</v>
       </c>
       <c r="B66" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="C66" s="2">
-        <v>10400</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1229</v>
+        <v>1188</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C67" s="2">
-        <v>9200</v>
+        <v>33200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1250</v>
+        <v>1211</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C68" s="2">
         <v>10400</v>
@@ -2940,76 +2972,76 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1265</v>
+        <v>1222</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C69" s="2">
-        <v>16400</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1281</v>
+        <v>1229</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C70" s="2">
-        <v>17600</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C71" s="2">
-        <v>14000</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1393</v>
+        <v>1265</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C72" s="2">
-        <v>18800</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1623</v>
+        <v>1281</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="C73" s="2">
-        <v>16400</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1804</v>
+        <v>1375</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C74" s="2">
-        <v>11600</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1948</v>
+        <v>1393</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C75" s="2">
         <v>18800</v>
@@ -3017,263 +3049,263 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>9583</v>
+        <v>1623</v>
       </c>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="C76" s="2">
-        <v>80000</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>143</v>
+        <v>1804</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C77" s="2">
-        <v>17900</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>345</v>
+        <v>1948</v>
       </c>
       <c r="B78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C78" s="2">
-        <v>9100</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>400</v>
+        <v>9583</v>
       </c>
       <c r="B79" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C79" s="2">
-        <v>15700</v>
+        <v>82400</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>786</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C80" s="2">
-        <v>19000</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>128</v>
+        <v>345</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C81" s="2">
-        <v>69600</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>303</v>
+        <v>400</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C82" s="2">
-        <v>19000</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>451</v>
+        <v>786</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C83" s="2">
-        <v>11300</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>920</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C84" s="2">
-        <v>11300</v>
+        <v>68500</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>552</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C85" s="2">
-        <v>22600</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>1376</v>
+        <v>451</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C86" s="2">
-        <v>13400</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>381</v>
+        <v>920</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C87" s="2">
-        <v>10700</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="B88" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C88" s="2">
-        <v>12500</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>882</v>
+        <v>1376</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C89" s="2">
-        <v>21500</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>962</v>
+        <v>381</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C90" s="2">
-        <v>43100</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C91" s="2">
-        <v>69000</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>756</v>
+        <v>882</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C92" s="2">
-        <v>18800</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>626</v>
+        <v>962</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C93" s="2">
-        <v>26900</v>
+        <v>43100</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C94" s="2">
-        <v>12500</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>337</v>
+        <v>756</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C95" s="2">
-        <v>13600</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>114</v>
+        <v>626</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C96" s="2">
-        <v>10100</v>
+        <v>26900</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>844</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C97" s="2">
-        <v>11500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C98" s="2">
-        <v>12800</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>733</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C99" s="2">
         <v>10100</v>
@@ -3281,70 +3313,91 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>742</v>
+        <v>844</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C100" s="2">
-        <v>12200</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>849</v>
+        <v>310</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C101" s="2">
-        <v>12200</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>856</v>
+        <v>733</v>
       </c>
       <c r="B102" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C102" s="2">
-        <v>16400</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>1349</v>
+        <v>742</v>
       </c>
       <c r="B103" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C103" s="2">
-        <v>12900</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
+        <v>849</v>
+      </c>
+      <c r="B104" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" s="2">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>856</v>
+      </c>
+      <c r="B105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="2">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>1349</v>
+      </c>
+      <c r="B106" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="2">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107">
         <v>801</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B107" t="s">
         <v>261</v>
       </c>
-      <c r="C104" s="2">
-        <v>179200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105"/>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106"/>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107"/>
-      <c r="C107" s="2"/>
+      <c r="C107" s="2">
+        <v>180000</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108"/>
@@ -3798,25 +3851,10 @@
       <c r="A220"/>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A221"/>
-      <c r="C221" s="2"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A222"/>
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A223"/>
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A224"/>
-      <c r="C224" s="2"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D109" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A225:A1048576">
+  <conditionalFormatting sqref="A221:A1048576">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
@@ -3826,14 +3864,14 @@
     <cfRule type="duplicateValues" dxfId="16" priority="21" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="15" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A224">
-    <cfRule type="duplicateValues" dxfId="2" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+  <conditionalFormatting sqref="A2:A220">
+    <cfRule type="duplicateValues" dxfId="2" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{2ACAF4B9-4E2B-45E1-9FE8-D2C1DDB114D1}"/>
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64249" xr:uid="{67C4C850-B1E0-4892-8D6D-FF0435DF797F}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64245" xr:uid="{67C4C850-B1E0-4892-8D6D-FF0435DF797F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222.xlsx
+++ b/RPAPhoto/TKC_SeikyuuNyuuryoku/Log/222.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonScript\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumu\Desktop\RPAScript\RPAPhoto\TKC_SeikyuuNyuuryoku\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904065B4-3498-453A-9FEA-B6A8FE765187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620AFF25-B0B0-418E-B480-4254E040574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7212" yWindow="1596" windowWidth="11520" windowHeight="8976" xr2:uid="{CAF740F5-369D-4DFB-89D5-D05DE433F51A}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="9444" windowHeight="12012" xr2:uid="{CAF740F5-369D-4DFB-89D5-D05DE433F51A}"/>
   </bookViews>
   <sheets>
     <sheet name="160" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'160'!$A$1:$D$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'160'!$A$1:$D$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="280">
   <si>
     <t>中新蔵</t>
   </si>
@@ -1176,9 +1176,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>㈱MARS</t>
-  </si>
-  <si>
     <t>おんじ内科クリニック</t>
     <rPh sb="3" eb="5">
       <t>ナイカ</t>
@@ -1619,6 +1616,9 @@
       <t>カイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2206,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2238,7 +2238,7 @@
         <v>758</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2">
         <v>9200</v>
@@ -2296,7 +2296,7 @@
         <v>178</v>
       </c>
       <c r="C7" s="2">
-        <v>30800</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -2329,7 +2329,7 @@
         <v>181</v>
       </c>
       <c r="C10" s="2">
-        <v>44000</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -2340,7 +2340,7 @@
         <v>182</v>
       </c>
       <c r="C11" s="2">
-        <v>24800</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -2362,7 +2362,7 @@
         <v>184</v>
       </c>
       <c r="C13" s="2">
-        <v>15200</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -2403,7 +2403,7 @@
         <v>1411</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="2">
         <v>17600</v>
@@ -2439,7 +2439,7 @@
         <v>190</v>
       </c>
       <c r="C20" s="2">
-        <v>17600</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -2472,7 +2472,7 @@
         <v>193</v>
       </c>
       <c r="C23" s="2">
-        <v>14000</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -2483,7 +2483,7 @@
         <v>194</v>
       </c>
       <c r="C24" s="2">
-        <v>62000</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -2502,7 +2502,7 @@
         <v>9680</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2">
         <v>16400</v>
@@ -2568,7 +2568,7 @@
         <v>547</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2">
         <v>11600</v>
@@ -2604,7 +2604,7 @@
         <v>203</v>
       </c>
       <c r="C35" s="2">
-        <v>22400</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -2711,7 +2711,7 @@
         <v>485</v>
       </c>
       <c r="B45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C45" s="2">
         <v>15200</v>
@@ -2736,7 +2736,7 @@
         <v>214</v>
       </c>
       <c r="C47" s="2">
-        <v>20000</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -2755,10 +2755,10 @@
         <v>670</v>
       </c>
       <c r="B49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2">
-        <v>16400</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -2769,7 +2769,7 @@
         <v>216</v>
       </c>
       <c r="C50" s="2">
-        <v>21200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -2777,7 +2777,7 @@
         <v>683</v>
       </c>
       <c r="B51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C51" s="2">
         <v>18800</v>
@@ -2821,10 +2821,10 @@
         <v>859</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C55" s="2">
-        <v>18800</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -2832,7 +2832,7 @@
         <v>901</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C56" s="2">
         <v>9200</v>
@@ -2857,7 +2857,7 @@
         <v>221</v>
       </c>
       <c r="C58" s="2">
-        <v>28400</v>
+        <v>29600</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -2865,10 +2865,10 @@
         <v>964</v>
       </c>
       <c r="B59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C59" s="2">
-        <v>62000</v>
+        <v>60800</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -2879,287 +2879,287 @@
         <v>222</v>
       </c>
       <c r="C60" s="2">
-        <v>24800</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>992</v>
+        <v>1017</v>
       </c>
       <c r="B61" t="s">
         <v>223</v>
       </c>
       <c r="C61" s="2">
-        <v>11600</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B62" t="s">
         <v>224</v>
       </c>
       <c r="C62" s="2">
-        <v>17600</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>1019</v>
+        <v>1078</v>
       </c>
       <c r="B63" t="s">
         <v>225</v>
       </c>
       <c r="C63" s="2">
-        <v>18800</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>1078</v>
+        <v>1130</v>
       </c>
       <c r="B64" t="s">
         <v>226</v>
       </c>
       <c r="C64" s="2">
-        <v>20000</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>1130</v>
+        <v>1165</v>
       </c>
       <c r="B65" t="s">
         <v>227</v>
       </c>
       <c r="C65" s="2">
-        <v>20000</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>1165</v>
+        <v>1188</v>
       </c>
       <c r="B66" t="s">
         <v>228</v>
       </c>
       <c r="C66" s="2">
-        <v>12800</v>
+        <v>30800</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>1188</v>
+        <v>1211</v>
       </c>
       <c r="B67" t="s">
         <v>229</v>
       </c>
       <c r="C67" s="2">
-        <v>33200</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="C68" s="2">
-        <v>10400</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>1222</v>
+        <v>1229</v>
       </c>
       <c r="B69" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C69" s="2">
-        <v>11600</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>1229</v>
+        <v>1250</v>
       </c>
       <c r="B70" t="s">
         <v>231</v>
       </c>
       <c r="C70" s="2">
-        <v>9200</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>1250</v>
+        <v>1265</v>
       </c>
       <c r="B71" t="s">
         <v>232</v>
       </c>
       <c r="C71" s="2">
-        <v>10400</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>1265</v>
+        <v>1281</v>
       </c>
       <c r="B72" t="s">
         <v>233</v>
       </c>
       <c r="C72" s="2">
-        <v>16400</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>1281</v>
+        <v>1375</v>
       </c>
       <c r="B73" t="s">
         <v>234</v>
       </c>
       <c r="C73" s="2">
-        <v>17600</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>1375</v>
+        <v>1393</v>
       </c>
       <c r="B74" t="s">
         <v>235</v>
       </c>
       <c r="C74" s="2">
-        <v>14000</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>1393</v>
+        <v>1623</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="C75" s="2">
-        <v>18800</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>1623</v>
+        <v>1804</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="C76" s="2">
-        <v>16400</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1804</v>
+        <v>1948</v>
       </c>
       <c r="B77" t="s">
         <v>237</v>
       </c>
       <c r="C77" s="2">
-        <v>11600</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>1948</v>
+        <v>9583</v>
       </c>
       <c r="B78" t="s">
         <v>238</v>
       </c>
       <c r="C78" s="2">
-        <v>17600</v>
+        <v>81200</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>9583</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
         <v>239</v>
       </c>
       <c r="C79" s="2">
-        <v>82400</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>143</v>
+        <v>345</v>
       </c>
       <c r="B80" t="s">
         <v>240</v>
       </c>
       <c r="C80" s="2">
-        <v>18800</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="B81" t="s">
         <v>241</v>
       </c>
       <c r="C81" s="2">
-        <v>9100</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>400</v>
+        <v>786</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="C82" s="2">
-        <v>15700</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>786</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C83" s="2">
-        <v>17900</v>
+        <v>68500</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
         <v>243</v>
       </c>
       <c r="C84" s="2">
-        <v>68500</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>303</v>
+        <v>451</v>
       </c>
       <c r="B85" t="s">
         <v>244</v>
       </c>
       <c r="C85" s="2">
-        <v>17900</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>451</v>
+        <v>920</v>
       </c>
       <c r="B86" t="s">
         <v>245</v>
@@ -3170,183 +3170,183 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>920</v>
+        <v>552</v>
       </c>
       <c r="B87" t="s">
         <v>246</v>
       </c>
       <c r="C87" s="2">
-        <v>11300</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>552</v>
+        <v>1376</v>
       </c>
       <c r="B88" t="s">
         <v>247</v>
       </c>
       <c r="C88" s="2">
-        <v>23500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>1376</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
         <v>248</v>
       </c>
       <c r="C89" s="2">
-        <v>13400</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B90" t="s">
         <v>249</v>
       </c>
       <c r="C90" s="2">
-        <v>10700</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>386</v>
+        <v>882</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C91" s="2">
-        <v>13400</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>882</v>
+        <v>962</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C92" s="2">
-        <v>24200</v>
+        <v>43100</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>962</v>
+        <v>376</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C93" s="2">
-        <v>43100</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>376</v>
+        <v>756</v>
       </c>
       <c r="B94" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C94" s="2">
-        <v>68000</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>756</v>
+        <v>626</v>
       </c>
       <c r="B95" t="s">
         <v>252</v>
       </c>
       <c r="C95" s="2">
-        <v>18800</v>
+        <v>26900</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>626</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C96" s="2">
-        <v>26900</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="B97" t="s">
         <v>274</v>
       </c>
       <c r="C97" s="2">
-        <v>12500</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>337</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C98" s="2">
-        <v>13600</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>114</v>
+        <v>844</v>
       </c>
       <c r="B99" t="s">
         <v>254</v>
       </c>
       <c r="C99" s="2">
-        <v>10100</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>844</v>
+        <v>310</v>
       </c>
       <c r="B100" t="s">
         <v>255</v>
       </c>
       <c r="C100" s="2">
-        <v>12900</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>310</v>
+        <v>733</v>
       </c>
       <c r="B101" t="s">
         <v>256</v>
       </c>
       <c r="C101" s="2">
-        <v>12800</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="B102" t="s">
         <v>257</v>
       </c>
       <c r="C102" s="2">
-        <v>10100</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>742</v>
+        <v>849</v>
       </c>
       <c r="B103" t="s">
         <v>258</v>
@@ -3357,35 +3357,35 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C104" s="2">
-        <v>12200</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>856</v>
+        <v>1349</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C105" s="2">
-        <v>16400</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>1349</v>
+        <v>801</v>
       </c>
       <c r="B106" t="s">
         <v>260</v>
       </c>
       <c r="C106" s="2">
-        <v>12900</v>
+        <v>179200</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -3393,15 +3393,22 @@
         <v>801</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
-      </c>
-      <c r="C107" s="2">
-        <v>180000</v>
+        <v>260</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108"/>
-      <c r="C108" s="2"/>
+      <c r="A108">
+        <v>801</v>
+      </c>
+      <c r="B108" t="s">
+        <v>260</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109"/>
@@ -3831,30 +3838,10 @@
       <c r="A215"/>
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A216"/>
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A217"/>
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A218"/>
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A219"/>
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A220"/>
-      <c r="C220" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D109" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}"/>
+  <autoFilter ref="A1:D108" xr:uid="{E0A775C6-7198-4E30-8A67-03F2ED63B3D7}"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A221:A1048576">
+  <conditionalFormatting sqref="A216:A1048576">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
@@ -3864,14 +3851,14 @@
     <cfRule type="duplicateValues" dxfId="16" priority="21" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="15" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A220">
-    <cfRule type="duplicateValues" dxfId="2" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+  <conditionalFormatting sqref="A2:A215">
+    <cfRule type="duplicateValues" dxfId="2" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{2ACAF4B9-4E2B-45E1-9FE8-D2C1DDB114D1}"/>
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64245" xr:uid="{67C4C850-B1E0-4892-8D6D-FF0435DF797F}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64240" xr:uid="{67C4C850-B1E0-4892-8D6D-FF0435DF797F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
